--- a/matruce de dépendances fonctionelles.xlsx
+++ b/matruce de dépendances fonctionelles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>ID_Potion</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>Peremption</t>
-  </si>
-  <si>
-    <t>Cout_Potion</t>
   </si>
 </sst>
 </file>
@@ -535,7 +532,7 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="AM7" sqref="AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1">
-        <f t="shared" ref="D1:AI1" si="0">1+C1</f>
+        <f t="shared" ref="D1:E1" si="0">1+C1</f>
         <v>3</v>
       </c>
       <c r="E1" s="1">
@@ -564,123 +561,123 @@
         <v>4</v>
       </c>
       <c r="F1" s="1">
-        <f t="shared" si="0"/>
+        <f>E1+1</f>
         <v>5</v>
       </c>
       <c r="G1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+F1</f>
         <v>6</v>
       </c>
       <c r="H1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+G1</f>
         <v>7</v>
       </c>
       <c r="I1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+H1</f>
         <v>8</v>
       </c>
       <c r="J1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+I1</f>
         <v>9</v>
       </c>
       <c r="K1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+J1</f>
         <v>10</v>
       </c>
       <c r="L1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+K1</f>
         <v>11</v>
       </c>
       <c r="M1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+L1</f>
         <v>12</v>
       </c>
       <c r="N1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+M1</f>
         <v>13</v>
       </c>
       <c r="O1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+N1</f>
         <v>14</v>
       </c>
       <c r="P1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+O1</f>
         <v>15</v>
       </c>
       <c r="Q1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+P1</f>
         <v>16</v>
       </c>
       <c r="R1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+Q1</f>
         <v>17</v>
       </c>
       <c r="S1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+R1</f>
         <v>18</v>
       </c>
       <c r="T1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+S1</f>
         <v>19</v>
       </c>
       <c r="U1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+T1</f>
         <v>20</v>
       </c>
       <c r="V1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+U1</f>
         <v>21</v>
       </c>
       <c r="W1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+V1</f>
         <v>22</v>
       </c>
       <c r="X1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+W1</f>
         <v>23</v>
       </c>
       <c r="Y1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+X1</f>
         <v>24</v>
       </c>
       <c r="Z1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+Y1</f>
         <v>25</v>
       </c>
       <c r="AA1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+Z1</f>
         <v>26</v>
       </c>
       <c r="AB1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+AA1</f>
         <v>27</v>
       </c>
       <c r="AC1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+AB1</f>
         <v>28</v>
       </c>
       <c r="AD1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+AC1</f>
         <v>29</v>
       </c>
       <c r="AE1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+AD1</f>
         <v>30</v>
       </c>
       <c r="AF1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+AE1</f>
         <v>31</v>
       </c>
       <c r="AG1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+AF1</f>
         <v>32</v>
       </c>
       <c r="AH1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+AG1</f>
         <v>33</v>
       </c>
       <c r="AI1" s="1">
-        <f t="shared" si="0"/>
+        <f>1+AH1</f>
         <v>34</v>
       </c>
     </row>
@@ -848,7 +845,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -888,7 +885,7 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -928,7 +925,7 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -968,7 +965,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1008,7 +1005,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1050,7 +1047,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1090,7 +1087,7 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1130,7 +1127,7 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1170,7 +1167,7 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1212,7 +1209,7 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1256,7 +1253,7 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1296,7 +1293,7 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1336,7 +1333,7 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1376,7 +1373,7 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1416,7 +1413,7 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1458,7 +1455,7 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1498,7 +1495,7 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1538,7 +1535,7 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1580,7 +1577,7 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1620,7 +1617,7 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1660,7 +1657,7 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1702,7 +1699,7 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1744,7 +1741,7 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1784,7 +1781,7 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1824,7 +1821,7 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1864,7 +1861,7 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1906,7 +1903,7 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1946,7 +1943,7 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1986,7 +1983,7 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2025,9 +2022,6 @@
       <c r="AJ34" s="1"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
